--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/34_Giresun_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/34_Giresun_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96F948A-7703-499E-B580-F23EF6DEC7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1DD112B-CAF8-451D-846D-80CF4E79FA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{A4C801FC-994C-46CF-BA26-B104775FCCFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{2497DA8F-15AF-47C8-824E-2A902D19FFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{86DD5176-BEA7-4ECA-ADCB-A4BF78365931}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5C11B3E0-BD8E-4494-A9C8-079B90A88030}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{AAC9BEF2-493A-4F50-A149-D6C0E79242AB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{BF625369-B0E7-4840-8754-2FBBC92CF283}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{C2FEAD59-0140-48EF-904B-1C536937CB19}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{09EF7B97-EB43-4845-89B8-439D13909132}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{9C150B14-4821-48D8-9190-95187648E930}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{41442EA6-25AE-40FF-8040-F7B4776DF4DD}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{38611DB7-C38D-48C5-A97E-9BF211CD08C2}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E6E70ECF-6C70-4B74-97A1-1269EAE6B593}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F1D3C495-C4E8-41D2-9506-F3F4F72E088E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3CC300CB-C510-4784-989C-C293E3E2F9F2}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{DDFC534E-7C47-4D82-B291-6CD06B6A87CF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{AAD076B1-C9D1-4F55-BBF3-B01BF563D2B2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3DFA45-5F84-4C63-AF08-C2AA7C625FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21357904-00B0-4E9A-B758-8CC8C0861FA0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAC75B1-E7C6-4BDB-9582-3EEF2B5E4178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03FE6B2-8248-44EC-BF4C-DA296FBF1F7A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC264EE3-E305-481F-811F-B7BE4A4475F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5466C87-E9F3-4B22-95C6-0BF84E372E4D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5124,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0561A2-14E8-47EA-8C03-C8470C6D4D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B0CFD-266A-4D70-9C29-1E27FD97DCD1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6392,7 +6392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE50F3B1-C3A4-458D-9AE6-CE8B366CB334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F4138-7EEF-4D39-8104-2E29A8066007}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7669,7 +7669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1012E12-F502-4CD9-AAE0-9E3D2BE6010A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87BA96F-C5E3-4B36-9371-BEE79182CF01}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8954,7 +8954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504F3D43-FBA1-4606-A84D-F24B9223F9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13227494-C77D-4A05-900E-15C4B6DD6AA9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10231,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7FDAE-8EBD-44AF-8B90-2D517D43B6E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11472855-E7D6-4680-A86B-8D571DF15A52}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11508,7 +11508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3954B883-A973-4B8D-A5B6-34A8873725BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254ED6C4-14D0-4F2E-AB58-87A9129548C1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12791,7 +12791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C835C24B-C08F-46C5-B5CE-66938DB86AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93691A8D-5C53-4F41-B164-2A2B82FBF54A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14070,7 +14070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0D681E-F338-4586-8758-507852958C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4A7A9C-D6D8-466F-AEBA-37737907A8FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15353,7 +15353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4D024E-7610-468A-B934-FA57875635BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181674B1-7BD0-4104-A5A7-FFEC58C32604}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
